--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -99,15 +99,9 @@
     <t>bud_total</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>SB GLOW  Doble room for single use, breakfast inc (Rates per room and night)</t>
   </si>
   <si>
-    <t>hotel</t>
-  </si>
-  <si>
     <t>SB  GLOW - Twin room, breakfast inc (Rates per room and night)</t>
   </si>
   <si>
@@ -153,27 +147,24 @@
     <t xml:space="preserve">CAT.DIAGONAL CENTRO  - Meeting room rental - HD </t>
   </si>
   <si>
+    <t>Lunch at Racó de la Vila (in case the flight will be in the evening), 3 courses menu inc drinks and coffee, from</t>
+  </si>
+  <si>
+    <t>Oneway transfer from Hotel to GoCar shop</t>
+  </si>
+  <si>
+    <t>GOCAR tour - starting and finishing at the GoCar shop (2h tour)</t>
+  </si>
+  <si>
+    <t>Dinner at Vai Moana Beach Bar - all to share menu including 2 drinks and coffee, from</t>
+  </si>
+  <si>
+    <t>Mojito after dinner</t>
+  </si>
+  <si>
     <t>Lunch at TINGLADO, three courses menu including drinks and coffees, from</t>
   </si>
   <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>Oneway transfer from Olympic Port to GoCar shop</t>
-  </si>
-  <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>GOCAR tour - starting and finishing at the GoCar shop (2h tour)</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>Free time in the city centre</t>
-  </si>
-  <si>
     <t>Dinner at Lomo Alto, three courses menu including drinks and coffee, from</t>
   </si>
   <si>
@@ -192,13 +183,7 @@
     <t>Oneway transfer from Alella to the hotel</t>
   </si>
   <si>
-    <t>Free time</t>
-  </si>
-  <si>
     <t>Dinner at CDLC, three courses menu drinks and coffee included, from</t>
-  </si>
-  <si>
-    <t>Lunch at Racó de la Vila (in case the flight will be in the evening), 3 courses menu inc drinks and coffee, from</t>
   </si>
   <si>
     <t>50 seater bus transfer from the hotel to the Airport</t>
@@ -267,9 +252,15 @@
     <t>prof_total</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>Double Room Single Use, breakfast incl (2 nights x 25 rooms)</t>
   </si>
   <si>
+    <t>hotel</t>
+  </si>
+  <si>
     <t>Double Room  (2 nights x 12 rooms)</t>
   </si>
   <si>
@@ -279,6 +270,9 @@
     <t xml:space="preserve">50 seater coach with Aux in T2 Barcelona airport to collect the group flight D85551 and transfer to Hotel Barcelo Raval </t>
   </si>
   <si>
+    <t>transfer</t>
+  </si>
+  <si>
     <t xml:space="preserve">50 seater coach with Aux in Barcelo Raval hotel at disposal for a maximum of 4 hours for transfer from hotel to La Marbella Nautical Beach for the activity and transfer back after the activity </t>
   </si>
   <si>
@@ -288,7 +282,13 @@
     <t xml:space="preserve">Beach volley activity in La Marbella Beach </t>
   </si>
   <si>
+    <t>activity</t>
+  </si>
+  <si>
     <t>Dinner at Alba Granados</t>
+  </si>
+  <si>
+    <t>restaurant</t>
   </si>
   <si>
     <t xml:space="preserve">Drinks during the activity - 3 beers per person </t>
@@ -508,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -972,14 +972,76 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thick">
-        <color indexed="8"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,8 +1052,8 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thick">
         <color indexed="8"/>
@@ -1005,8 +1067,8 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thick">
         <color indexed="8"/>
@@ -1320,7 +1382,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1651,46 +1713,70 @@
     <xf numFmtId="49" fontId="0" fillId="14" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="17" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1702,79 +1788,79 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1783,10 +1869,10 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1795,7 +1881,7 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -5925,7 +6011,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6078,15 +6164,13 @@
       <c r="F13" t="s" s="84">
         <v>26</v>
       </c>
-      <c r="G13" t="s" s="85">
-        <v>27</v>
-      </c>
+      <c r="G13" s="85"/>
     </row>
     <row r="14" ht="14.65" customHeight="1">
       <c r="A14" s="75"/>
       <c r="B14" s="86"/>
       <c r="C14" t="s" s="87">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="88">
         <v>0</v>
@@ -6098,15 +6182,13 @@
         <f>E14*D14</f>
         <v>0</v>
       </c>
-      <c r="G14" t="s" s="91">
-        <v>29</v>
-      </c>
+      <c r="G14" s="91"/>
     </row>
     <row r="15" ht="14.15" customHeight="1">
       <c r="A15" s="75"/>
       <c r="B15" s="92"/>
       <c r="C15" t="s" s="93">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="94">
         <v>0</v>
@@ -6118,15 +6200,13 @@
         <f>E15*D15</f>
         <v>0</v>
       </c>
-      <c r="G15" t="s" s="91">
-        <v>29</v>
-      </c>
+      <c r="G15" s="91"/>
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" s="75"/>
       <c r="B16" s="97"/>
       <c r="C16" t="s" s="98">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="99">
         <v>0</v>
@@ -6138,15 +6218,13 @@
         <f>E16*D16</f>
         <v>0</v>
       </c>
-      <c r="G16" t="s" s="91">
-        <v>29</v>
-      </c>
+      <c r="G16" s="91"/>
     </row>
     <row r="17" ht="14.15" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="102"/>
       <c r="C17" t="s" s="103">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="104">
         <v>0</v>
@@ -6164,7 +6242,7 @@
       <c r="A18" s="75"/>
       <c r="B18" s="102"/>
       <c r="C18" t="s" s="87">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="88">
         <v>0</v>
@@ -6182,7 +6260,7 @@
       <c r="A19" s="75"/>
       <c r="B19" s="102"/>
       <c r="C19" t="s" s="93">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="94">
         <v>0</v>
@@ -6200,7 +6278,7 @@
       <c r="A20" s="75"/>
       <c r="B20" s="102"/>
       <c r="C20" t="s" s="98">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="99">
         <v>0</v>
@@ -6218,7 +6296,7 @@
       <c r="A21" s="75"/>
       <c r="B21" s="102"/>
       <c r="C21" t="s" s="103">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="104">
         <v>0</v>
@@ -6236,7 +6314,7 @@
       <c r="A22" s="75"/>
       <c r="B22" s="102"/>
       <c r="C22" t="s" s="87">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="88">
         <v>0</v>
@@ -6254,7 +6332,7 @@
       <c r="A23" s="75"/>
       <c r="B23" s="102"/>
       <c r="C23" t="s" s="93">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="94">
         <v>0</v>
@@ -6272,7 +6350,7 @@
       <c r="A24" s="75"/>
       <c r="B24" s="102"/>
       <c r="C24" t="s" s="98">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="99">
         <v>0</v>
@@ -6290,7 +6368,7 @@
       <c r="A25" s="75"/>
       <c r="B25" s="102"/>
       <c r="C25" t="s" s="103">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="104">
         <v>0</v>
@@ -6306,7 +6384,7 @@
       <c r="A26" s="75"/>
       <c r="B26" s="102"/>
       <c r="C26" t="s" s="87">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="88">
         <v>0</v>
@@ -6324,7 +6402,7 @@
       <c r="A27" s="75"/>
       <c r="B27" s="102"/>
       <c r="C27" t="s" s="93">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="94">
         <v>0</v>
@@ -6343,7 +6421,7 @@
       <c r="A28" s="75"/>
       <c r="B28" s="102"/>
       <c r="C28" t="s" s="98">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="99">
         <v>0</v>
@@ -6361,7 +6439,7 @@
       <c r="A29" s="75"/>
       <c r="B29" s="102"/>
       <c r="C29" t="s" s="107">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="94">
         <v>0</v>
@@ -6375,57 +6453,53 @@
       </c>
       <c r="G29" s="91"/>
     </row>
-    <row r="30" ht="13.65" customHeight="1">
+    <row r="30" ht="25.15" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="102">
-        <v>43600.5625</v>
+        <v>43599.541666666664</v>
       </c>
       <c r="C30" t="s" s="109">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="110">
-        <v>35</v>
-      </c>
-      <c r="E30" s="100">
-        <v>51</v>
-      </c>
-      <c r="F30" s="101">
+        <v>0</v>
+      </c>
+      <c r="E30" s="111">
+        <v>52</v>
+      </c>
+      <c r="F30" s="106">
         <f>E30*D30</f>
-        <v>1785</v>
-      </c>
-      <c r="G30" t="s" s="91">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" ht="14.15" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="91"/>
+    </row>
+    <row r="31" ht="14.65" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="102">
-        <v>43600.625</v>
+        <v>43599.625</v>
       </c>
       <c r="C31" t="s" s="109">
-        <v>47</v>
-      </c>
-      <c r="D31" s="111">
+        <v>44</v>
+      </c>
+      <c r="D31" s="112">
         <v>1</v>
       </c>
-      <c r="E31" s="112">
+      <c r="E31" s="89">
         <v>270</v>
       </c>
-      <c r="F31" s="106">
+      <c r="F31" s="113">
         <f>E31*D31</f>
         <v>270</v>
       </c>
-      <c r="G31" t="s" s="91">
-        <v>48</v>
-      </c>
+      <c r="G31" s="91"/>
     </row>
     <row r="32" ht="14.15" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="102">
-        <v>43600.666666666664</v>
+        <v>43599.645833333336</v>
       </c>
       <c r="C32" t="s" s="109">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D32" s="88">
         <v>35</v>
@@ -6437,288 +6511,259 @@
         <f>E32*D32</f>
         <v>3150</v>
       </c>
-      <c r="G32" t="s" s="91">
-        <v>50</v>
-      </c>
+      <c r="G32" s="91"/>
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="102">
-        <v>43600.75</v>
-      </c>
-      <c r="C33" t="s" s="109">
-        <v>51</v>
-      </c>
-      <c r="D33" s="110">
-        <v>0</v>
-      </c>
-      <c r="E33" s="100">
-        <v>0</v>
+        <v>43599.833333333336</v>
+      </c>
+      <c r="C33" t="s" s="114">
+        <v>46</v>
+      </c>
+      <c r="D33" s="115">
+        <v>35</v>
+      </c>
+      <c r="E33" s="116">
+        <v>57</v>
       </c>
       <c r="F33" s="101">
         <f>E33*D33</f>
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="G33" s="91"/>
     </row>
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="102">
-        <v>43600.833333333336</v>
-      </c>
-      <c r="C34" t="s" s="109">
-        <v>52</v>
-      </c>
-      <c r="D34" s="110">
+        <v>43599.833333333336</v>
+      </c>
+      <c r="C34" t="s" s="117">
+        <v>47</v>
+      </c>
+      <c r="D34" s="118">
         <v>35</v>
       </c>
-      <c r="E34" s="100">
-        <v>65</v>
+      <c r="E34" s="119">
+        <v>12</v>
       </c>
       <c r="F34" s="101">
         <f>E34*D34</f>
-        <v>2275</v>
-      </c>
-      <c r="G34" t="s" s="91">
-        <v>46</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="G34" s="91"/>
     </row>
     <row r="35" ht="13.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="102">
-        <v>43600.916666666664</v>
+        <v>43600.5625</v>
       </c>
       <c r="C35" t="s" s="109">
-        <v>53</v>
-      </c>
-      <c r="D35" s="110">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D35" s="120">
+        <v>35</v>
       </c>
       <c r="E35" s="100">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="F35" s="101">
         <f>E35*D35</f>
-        <v>270</v>
-      </c>
-      <c r="G35" t="s" s="91">
-        <v>48</v>
-      </c>
+        <v>1785</v>
+      </c>
+      <c r="G35" s="91"/>
     </row>
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="102">
-        <v>43601.416666666664</v>
+        <v>43600.833333333336</v>
       </c>
       <c r="C36" t="s" s="109">
-        <v>54</v>
-      </c>
-      <c r="D36" s="110">
+        <v>49</v>
+      </c>
+      <c r="D36" s="120">
         <v>35</v>
       </c>
       <c r="E36" s="100">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F36" s="101">
         <f>E36*D36</f>
-        <v>1820</v>
-      </c>
-      <c r="G36" t="s" s="91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" ht="14.15" customHeight="1">
+        <v>2275</v>
+      </c>
+      <c r="G36" s="91"/>
+    </row>
+    <row r="37" ht="13.65" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="102">
-        <v>43601.416666666664</v>
+        <v>43600.916666666664</v>
       </c>
       <c r="C37" t="s" s="109">
-        <v>55</v>
-      </c>
-      <c r="D37" s="111">
+        <v>50</v>
+      </c>
+      <c r="D37" s="120">
         <v>1</v>
       </c>
-      <c r="E37" s="112">
-        <v>560</v>
-      </c>
-      <c r="F37" s="106">
+      <c r="E37" s="100">
+        <v>270</v>
+      </c>
+      <c r="F37" s="101">
         <f>E37*D37</f>
-        <v>560</v>
-      </c>
-      <c r="G37" t="s" s="91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" ht="14.15" customHeight="1">
+        <v>270</v>
+      </c>
+      <c r="G37" s="91"/>
+    </row>
+    <row r="38" ht="13.65" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="102">
+        <v>43601.416666666664</v>
+      </c>
+      <c r="C38" t="s" s="109">
+        <v>51</v>
+      </c>
+      <c r="D38" s="120">
+        <v>35</v>
+      </c>
+      <c r="E38" s="100">
+        <v>52</v>
+      </c>
+      <c r="F38" s="101">
+        <f>E38*D38</f>
+        <v>1820</v>
+      </c>
+      <c r="G38" s="91"/>
+    </row>
+    <row r="39" ht="14.15" customHeight="1">
+      <c r="A39" s="75"/>
+      <c r="B39" s="102">
+        <v>43601.416666666664</v>
+      </c>
+      <c r="C39" t="s" s="109">
+        <v>52</v>
+      </c>
+      <c r="D39" s="110">
+        <v>1</v>
+      </c>
+      <c r="E39" s="111">
+        <v>560</v>
+      </c>
+      <c r="F39" s="106">
+        <f>E39*D39</f>
+        <v>560</v>
+      </c>
+      <c r="G39" s="91"/>
+    </row>
+    <row r="40" ht="14.15" customHeight="1">
+      <c r="A40" s="75"/>
+      <c r="B40" s="102">
         <v>43601.5</v>
       </c>
-      <c r="C38" t="s" s="109">
-        <v>56</v>
-      </c>
-      <c r="D38" s="88">
+      <c r="C40" t="s" s="109">
+        <v>53</v>
+      </c>
+      <c r="D40" s="88">
         <v>35</v>
       </c>
-      <c r="E38" s="95">
+      <c r="E40" s="95">
         <f>97</f>
         <v>97</v>
       </c>
-      <c r="F38" s="90">
-        <f>E38*D38</f>
+      <c r="F40" s="90">
+        <f>E40*D40</f>
         <v>3395</v>
-      </c>
-      <c r="G38" t="s" s="91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" ht="13.65" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="102">
-        <v>43601.458333333336</v>
-      </c>
-      <c r="C39" t="s" s="109">
-        <v>57</v>
-      </c>
-      <c r="D39" s="110">
-        <v>1</v>
-      </c>
-      <c r="E39" s="100">
-        <v>346</v>
-      </c>
-      <c r="F39" s="101">
-        <f>E39*D39</f>
-        <v>346</v>
-      </c>
-      <c r="G39" t="s" s="91">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" ht="13.65" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="102">
-        <v>43601.541666666664</v>
-      </c>
-      <c r="C40" t="s" s="109">
-        <v>58</v>
-      </c>
-      <c r="D40" s="110">
-        <v>0</v>
-      </c>
-      <c r="E40" s="100">
-        <v>0</v>
-      </c>
-      <c r="F40" s="101">
-        <f>E40*D40</f>
-        <v>0</v>
       </c>
       <c r="G40" s="91"/>
     </row>
     <row r="41" ht="13.65" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="102">
-        <v>43601.833333333336</v>
+        <v>43601.458333333336</v>
       </c>
       <c r="C41" t="s" s="109">
-        <v>59</v>
-      </c>
-      <c r="D41" s="110">
-        <v>35</v>
+        <v>54</v>
+      </c>
+      <c r="D41" s="120">
+        <v>1</v>
       </c>
       <c r="E41" s="100">
-        <f>80</f>
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="F41" s="101">
         <f>E41*D41</f>
-        <v>2800</v>
-      </c>
-      <c r="G41" t="s" s="91">
-        <v>46</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G41" s="91"/>
     </row>
     <row r="42" ht="13.65" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="102">
-        <v>43602.375</v>
+        <v>43601.833333333336</v>
       </c>
       <c r="C42" t="s" s="109">
-        <v>58</v>
-      </c>
-      <c r="D42" s="110">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="D42" s="120">
+        <v>35</v>
       </c>
       <c r="E42" s="100">
-        <v>0</v>
+        <f>80</f>
+        <v>80</v>
       </c>
       <c r="F42" s="101">
         <f>E42*D42</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="G42" s="91"/>
     </row>
-    <row r="43" ht="25.15" customHeight="1">
+    <row r="43" ht="14.65" customHeight="1">
       <c r="A43" s="75"/>
       <c r="B43" s="102">
-        <v>43602.541666666664</v>
-      </c>
-      <c r="C43" t="s" s="109">
-        <v>60</v>
-      </c>
-      <c r="D43" s="111">
+        <v>43602.625</v>
+      </c>
+      <c r="C43" t="s" s="121">
+        <v>56</v>
+      </c>
+      <c r="D43" s="122">
+        <v>1</v>
+      </c>
+      <c r="E43" s="123">
+        <v>240</v>
+      </c>
+      <c r="F43" s="124">
+        <f>E43*D43</f>
+        <v>240</v>
+      </c>
+      <c r="G43" s="91"/>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" s="125"/>
+      <c r="B44" s="126"/>
+      <c r="C44" t="s" s="127">
+        <v>57</v>
+      </c>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="129">
         <v>0</v>
       </c>
-      <c r="E43" s="112">
-        <v>52</v>
-      </c>
-      <c r="F43" s="106">
-        <f>E43*D43</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="91"/>
-    </row>
-    <row r="44" ht="15.15" customHeight="1">
-      <c r="A44" s="75"/>
-      <c r="B44" s="102">
-        <v>43602.625</v>
-      </c>
-      <c r="C44" t="s" s="113">
-        <v>61</v>
-      </c>
-      <c r="D44" s="114">
-        <v>1</v>
-      </c>
-      <c r="E44" s="115">
-        <v>240</v>
-      </c>
-      <c r="F44" s="116">
-        <f>E44*D44</f>
-        <v>240</v>
-      </c>
-      <c r="G44" t="s" s="91">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="117"/>
-      <c r="B45" s="118"/>
-      <c r="C45" t="s" s="119">
-        <v>62</v>
-      </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121">
-        <v>0</v>
-      </c>
-      <c r="G45" s="122"/>
+      <c r="G44" s="130"/>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="A45" s="71"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="71"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="73"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
@@ -6759,54 +6804,45 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="71"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="B51" t="s" s="132">
+        <v>58</v>
+      </c>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="134"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="71"/>
-      <c r="B52" t="s" s="124">
-        <v>63</v>
-      </c>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="126"/>
+      <c r="B52" t="s" s="132">
+        <v>59</v>
+      </c>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="134"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="71"/>
-      <c r="B53" t="s" s="124">
-        <v>64</v>
-      </c>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="126"/>
+      <c r="B53" t="s" s="132">
+        <v>60</v>
+      </c>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="134"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="71"/>
-      <c r="B54" t="s" s="124">
-        <v>65</v>
-      </c>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="126"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="127"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="129"/>
+      <c r="A54" s="135"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6826,15 +6862,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="130" customWidth="1"/>
-    <col min="2" max="2" width="6.67188" style="130" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="130" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="130" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="130" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="130" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="130" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="130" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="130" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="138" customWidth="1"/>
+    <col min="2" max="2" width="6.67188" style="138" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="138" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="138" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="138" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="138" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="138" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="138" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="138" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -6859,12 +6895,12 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="71"/>
-      <c r="B3" s="131"/>
+      <c r="B3" s="139"/>
       <c r="C3" t="s" s="76">
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -6873,12 +6909,12 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="71"/>
-      <c r="B4" s="131"/>
+      <c r="B4" s="139"/>
       <c r="C4" t="s" s="78">
         <v>17</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -6887,12 +6923,12 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="71"/>
-      <c r="B5" s="131"/>
+      <c r="B5" s="139"/>
       <c r="C5" t="s" s="78">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -6901,12 +6937,12 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="131"/>
+      <c r="B6" s="139"/>
       <c r="C6" t="s" s="78">
         <v>19</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -6915,12 +6951,12 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="131"/>
+      <c r="B7" s="139"/>
       <c r="C7" t="s" s="78">
         <v>20</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -6929,12 +6965,12 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="131"/>
+      <c r="B8" s="139"/>
       <c r="C8" t="s" s="80">
         <v>21</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -6974,56 +7010,56 @@
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" t="s" s="132">
+      <c r="C12" t="s" s="140">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s" s="141">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s" s="141">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s" s="141">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s" s="142">
+        <v>71</v>
+      </c>
+      <c r="H12" t="s" s="85">
         <v>72</v>
-      </c>
-      <c r="D12" t="s" s="133">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s" s="133">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s" s="133">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s" s="134">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="85">
-        <v>27</v>
       </c>
     </row>
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="71"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="135">
+      <c r="C13" s="143">
         <v>43577</v>
       </c>
-      <c r="D13" t="s" s="136">
-        <v>77</v>
-      </c>
-      <c r="E13" s="137">
+      <c r="D13" t="s" s="144">
+        <v>73</v>
+      </c>
+      <c r="E13" s="145">
         <v>50</v>
       </c>
-      <c r="F13" s="138">
+      <c r="F13" s="146">
         <v>150</v>
       </c>
-      <c r="G13" s="139">
+      <c r="G13" s="147">
         <f>F13*E13</f>
         <v>7500</v>
       </c>
-      <c r="H13" t="s" s="140">
-        <v>29</v>
+      <c r="H13" t="s" s="148">
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="141">
+      <c r="C14" s="149">
         <v>43577</v>
       </c>
-      <c r="D14" t="s" s="142">
-        <v>78</v>
+      <c r="D14" t="s" s="150">
+        <v>75</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7031,22 +7067,22 @@
       <c r="F14" s="108">
         <v>130</v>
       </c>
-      <c r="G14" s="143">
+      <c r="G14" s="151">
         <f>F14*E14</f>
         <v>3120</v>
       </c>
-      <c r="H14" t="s" s="140">
-        <v>29</v>
+      <c r="H14" t="s" s="148">
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="144">
+      <c r="C15" s="152">
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="98">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="99">
         <f>E13*2+E14</f>
@@ -7055,22 +7091,22 @@
       <c r="F15" s="100">
         <v>1.21</v>
       </c>
-      <c r="G15" s="145">
+      <c r="G15" s="153">
         <f>F15*E15</f>
         <v>150.04</v>
       </c>
-      <c r="H15" t="s" s="140">
-        <v>29</v>
+      <c r="H15" t="s" s="148">
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="141">
+      <c r="C16" s="149">
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="107">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7078,43 +7114,43 @@
       <c r="F16" s="108">
         <v>228</v>
       </c>
-      <c r="G16" s="143">
+      <c r="G16" s="151">
         <v>228</v>
       </c>
-      <c r="H16" t="s" s="140">
-        <v>48</v>
+      <c r="H16" t="s" s="148">
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="144">
+      <c r="C17" s="152">
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="109">
-        <v>81</v>
-      </c>
-      <c r="E17" s="110">
+        <v>79</v>
+      </c>
+      <c r="E17" s="120">
         <v>1</v>
       </c>
       <c r="F17" s="100">
         <v>345</v>
       </c>
-      <c r="G17" s="145">
+      <c r="G17" s="153">
         <v>345</v>
       </c>
-      <c r="H17" t="s" s="140">
-        <v>48</v>
+      <c r="H17" t="s" s="148">
+        <v>78</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="141">
+      <c r="C18" s="149">
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="107">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7122,43 +7158,43 @@
       <c r="F18" s="108">
         <v>1.5</v>
       </c>
-      <c r="G18" s="143">
+      <c r="G18" s="151">
         <v>60</v>
       </c>
-      <c r="H18" t="s" s="140">
-        <v>48</v>
+      <c r="H18" t="s" s="148">
+        <v>78</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="144">
+      <c r="C19" s="152">
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="109">
-        <v>83</v>
-      </c>
-      <c r="E19" s="110">
+        <v>81</v>
+      </c>
+      <c r="E19" s="120">
         <v>34</v>
       </c>
       <c r="F19" s="100">
         <v>46</v>
       </c>
-      <c r="G19" s="145">
+      <c r="G19" s="153">
         <v>1564</v>
       </c>
-      <c r="H19" t="s" s="140">
-        <v>50</v>
+      <c r="H19" t="s" s="148">
+        <v>82</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="141">
+      <c r="C20" s="149">
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="107">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7166,40 +7202,40 @@
       <c r="F20" s="108">
         <v>38</v>
       </c>
-      <c r="G20" s="143">
+      <c r="G20" s="151">
         <f>F20*E20</f>
         <v>2356</v>
       </c>
-      <c r="H20" t="s" s="140">
-        <v>46</v>
+      <c r="H20" t="s" s="148">
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="144">
+      <c r="C21" s="152">
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="109">
         <v>85</v>
       </c>
-      <c r="E21" s="110">
+      <c r="E21" s="120">
         <v>102</v>
       </c>
       <c r="F21" s="100">
         <v>3.5</v>
       </c>
-      <c r="G21" s="145">
+      <c r="G21" s="153">
         <v>357</v>
       </c>
-      <c r="H21" t="s" s="140">
-        <v>50</v>
+      <c r="H21" t="s" s="148">
+        <v>82</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="141">
+      <c r="C22" s="149">
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="107">
@@ -7211,43 +7247,43 @@
       <c r="F22" s="108">
         <v>228</v>
       </c>
-      <c r="G22" s="143">
+      <c r="G22" s="151">
         <v>228</v>
       </c>
-      <c r="H22" t="s" s="140">
-        <v>48</v>
+      <c r="H22" t="s" s="148">
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="144">
+      <c r="C23" s="152">
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="109">
         <v>87</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="120">
         <v>1</v>
       </c>
       <c r="F23" s="100">
         <v>228</v>
       </c>
-      <c r="G23" s="145">
+      <c r="G23" s="153">
         <v>228</v>
       </c>
-      <c r="H23" t="s" s="140">
-        <v>48</v>
+      <c r="H23" t="s" s="148">
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="146">
+      <c r="C24" s="154">
         <v>43579</v>
       </c>
       <c r="D24" t="s" s="103">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="104">
         <v>40</v>
@@ -7255,23 +7291,23 @@
       <c r="F24" s="105">
         <v>1.5</v>
       </c>
-      <c r="G24" s="147">
+      <c r="G24" s="155">
         <v>60</v>
       </c>
-      <c r="H24" t="s" s="140">
-        <v>48</v>
+      <c r="H24" t="s" s="148">
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="148"/>
-      <c r="D25" t="s" s="149">
-        <v>62</v>
-      </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151">
+      <c r="B25" s="139"/>
+      <c r="C25" s="156"/>
+      <c r="D25" t="s" s="157">
+        <v>57</v>
+      </c>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="159">
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
@@ -7282,10 +7318,10 @@
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="81"/>
-      <c r="D26" s="152"/>
+      <c r="D26" s="160"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="153"/>
+      <c r="G26" s="161"/>
       <c r="H26" s="73"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -7301,8 +7337,8 @@
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="131"/>
-      <c r="D28" t="s" s="154">
+      <c r="C28" s="139"/>
+      <c r="D28" t="s" s="162">
         <v>89</v>
       </c>
       <c r="E28" s="77"/>
@@ -7313,8 +7349,8 @@
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="131"/>
-      <c r="D29" t="s" s="155">
+      <c r="C29" s="139"/>
+      <c r="D29" t="s" s="163">
         <v>90</v>
       </c>
       <c r="E29" s="77"/>
@@ -7325,8 +7361,8 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="131"/>
-      <c r="D30" t="s" s="156">
+      <c r="C30" s="139"/>
+      <c r="D30" t="s" s="164">
         <v>91</v>
       </c>
       <c r="E30" s="77"/>
@@ -7337,8 +7373,8 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="131"/>
-      <c r="D31" t="s" s="156">
+      <c r="C31" s="139"/>
+      <c r="D31" t="s" s="164">
         <v>92</v>
       </c>
       <c r="E31" s="77"/>
@@ -7349,8 +7385,8 @@
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="131"/>
-      <c r="D32" t="s" s="157">
+      <c r="C32" s="139"/>
+      <c r="D32" t="s" s="165">
         <v>93</v>
       </c>
       <c r="E32" s="77"/>
@@ -7411,48 +7447,48 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
-      <c r="C38" t="s" s="124">
-        <v>63</v>
-      </c>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
+      <c r="C38" t="s" s="132">
+        <v>58</v>
+      </c>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
       <c r="H38" s="73"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
-      <c r="C39" t="s" s="124">
-        <v>64</v>
-      </c>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
+      <c r="C39" t="s" s="132">
+        <v>59</v>
+      </c>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
       <c r="H39" s="73"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
-      <c r="C40" t="s" s="124">
-        <v>65</v>
-      </c>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
+      <c r="C40" t="s" s="132">
+        <v>60</v>
+      </c>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="73"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="127"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="129"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7472,12 +7508,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="159" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="159" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="159" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="159" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="159" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="159" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="167" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="167" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="167" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="167" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="167" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="167" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -7503,52 +7539,52 @@
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" t="s" s="160">
+      <c r="B4" t="s" s="168">
         <v>94</v>
       </c>
-      <c r="C4" t="s" s="160">
+      <c r="C4" t="s" s="168">
         <v>95</v>
       </c>
-      <c r="D4" t="s" s="160">
+      <c r="D4" t="s" s="168">
         <v>96</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="161">
+      <c r="B5" s="169">
         <v>43646</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="170">
         <v>3239.21</v>
       </c>
-      <c r="D5" t="s" s="160">
+      <c r="D5" t="s" s="168">
         <v>97</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="161">
+      <c r="B6" s="169">
         <v>43738</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="170">
         <v>6478.42</v>
       </c>
-      <c r="D6" t="s" s="160">
+      <c r="D6" t="s" s="168">
         <v>98</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="161">
+      <c r="B7" s="169">
         <v>43766</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="170">
         <v>6478.42</v>
       </c>
-      <c r="D7" t="s" s="160">
+      <c r="D7" t="s" s="168">
         <v>98</v>
       </c>
       <c r="E7" s="11"/>

--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>first</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>Dinner at CDLC, three courses menu drinks and coffee included, from</t>
-  </si>
-  <si>
-    <t>50 seater bus transfer from the hotel to the Airport</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL </t>
@@ -6011,7 +6008,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6456,7 +6453,7 @@
     <row r="30" ht="25.15" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="102">
-        <v>43599.541666666664</v>
+        <v>43599</v>
       </c>
       <c r="C30" t="s" s="109">
         <v>43</v>
@@ -6476,7 +6473,7 @@
     <row r="31" ht="14.65" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="102">
-        <v>43599.625</v>
+        <v>43599</v>
       </c>
       <c r="C31" t="s" s="109">
         <v>44</v>
@@ -6485,18 +6482,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="89">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F31" s="113">
         <f>E31*D31</f>
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="G31" s="91"/>
     </row>
     <row r="32" ht="14.15" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="102">
-        <v>43599.645833333336</v>
+        <v>43599</v>
       </c>
       <c r="C32" t="s" s="109">
         <v>45</v>
@@ -6516,7 +6513,7 @@
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="102">
-        <v>43599.833333333336</v>
+        <v>43599</v>
       </c>
       <c r="C33" t="s" s="114">
         <v>46</v>
@@ -6536,7 +6533,7 @@
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="102">
-        <v>43599.833333333336</v>
+        <v>43599</v>
       </c>
       <c r="C34" t="s" s="117">
         <v>47</v>
@@ -6556,7 +6553,7 @@
     <row r="35" ht="13.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="102">
-        <v>43600.5625</v>
+        <v>43600</v>
       </c>
       <c r="C35" t="s" s="109">
         <v>48</v>
@@ -6576,7 +6573,7 @@
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="102">
-        <v>43600.833333333336</v>
+        <v>43600</v>
       </c>
       <c r="C36" t="s" s="109">
         <v>49</v>
@@ -6596,7 +6593,7 @@
     <row r="37" ht="13.65" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="102">
-        <v>43600.916666666664</v>
+        <v>43600</v>
       </c>
       <c r="C37" t="s" s="109">
         <v>50</v>
@@ -6616,7 +6613,7 @@
     <row r="38" ht="13.65" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="102">
-        <v>43601.416666666664</v>
+        <v>43601</v>
       </c>
       <c r="C38" t="s" s="109">
         <v>51</v>
@@ -6636,7 +6633,7 @@
     <row r="39" ht="14.15" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="102">
-        <v>43601.416666666664</v>
+        <v>43601</v>
       </c>
       <c r="C39" t="s" s="109">
         <v>52</v>
@@ -6656,7 +6653,7 @@
     <row r="40" ht="14.15" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="102">
-        <v>43601.5</v>
+        <v>43601</v>
       </c>
       <c r="C40" t="s" s="109">
         <v>53</v>
@@ -6677,7 +6674,7 @@
     <row r="41" ht="13.65" customHeight="1">
       <c r="A41" s="75"/>
       <c r="B41" s="102">
-        <v>43601.458333333336</v>
+        <v>43601</v>
       </c>
       <c r="C41" t="s" s="109">
         <v>54</v>
@@ -6694,67 +6691,56 @@
       </c>
       <c r="G41" s="91"/>
     </row>
-    <row r="42" ht="13.65" customHeight="1">
+    <row r="42" ht="14.65" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="102">
-        <v>43601.833333333336</v>
-      </c>
-      <c r="C42" t="s" s="109">
+        <v>43601</v>
+      </c>
+      <c r="C42" t="s" s="121">
         <v>55</v>
       </c>
-      <c r="D42" s="120">
+      <c r="D42" s="122">
         <v>35</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E42" s="123">
         <f>80</f>
         <v>80</v>
       </c>
-      <c r="F42" s="101">
+      <c r="F42" s="124">
         <f>E42*D42</f>
         <v>2800</v>
       </c>
       <c r="G42" s="91"/>
     </row>
-    <row r="43" ht="14.65" customHeight="1">
-      <c r="A43" s="75"/>
-      <c r="B43" s="102">
-        <v>43602.625</v>
-      </c>
-      <c r="C43" t="s" s="121">
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="A43" s="125"/>
+      <c r="B43" s="126"/>
+      <c r="C43" t="s" s="127">
         <v>56</v>
       </c>
-      <c r="D43" s="122">
-        <v>1</v>
-      </c>
-      <c r="E43" s="123">
-        <v>240</v>
-      </c>
-      <c r="F43" s="124">
-        <f>E43*D43</f>
-        <v>240</v>
-      </c>
-      <c r="G43" s="91"/>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="125"/>
-      <c r="B44" s="126"/>
-      <c r="C44" t="s" s="127">
-        <v>57</v>
-      </c>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="129">
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129">
         <v>0</v>
       </c>
-      <c r="G44" s="130"/>
+      <c r="G43" s="130"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="A44" s="71"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="71"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
       <c r="G45" s="73"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
@@ -6795,12 +6781,14 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="71"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="B50" t="s" s="132">
+        <v>57</v>
+      </c>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="134"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="71"/>
@@ -6825,24 +6813,13 @@
       <c r="G52" s="134"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="71"/>
-      <c r="B53" t="s" s="132">
-        <v>60</v>
-      </c>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="134"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="135"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="137"/>
+      <c r="A53" s="135"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6900,7 +6877,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -6914,7 +6891,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -6928,7 +6905,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -6942,7 +6919,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -6956,7 +6933,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -6970,7 +6947,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -7011,22 +6988,22 @@
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
       <c r="C12" t="s" s="140">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s" s="141">
         <v>67</v>
       </c>
-      <c r="D12" t="s" s="141">
+      <c r="E12" t="s" s="141">
         <v>68</v>
       </c>
-      <c r="E12" t="s" s="141">
+      <c r="F12" t="s" s="141">
         <v>69</v>
       </c>
-      <c r="F12" t="s" s="141">
+      <c r="G12" t="s" s="142">
         <v>70</v>
       </c>
-      <c r="G12" t="s" s="142">
+      <c r="H12" t="s" s="85">
         <v>71</v>
-      </c>
-      <c r="H12" t="s" s="85">
-        <v>72</v>
       </c>
     </row>
     <row r="13" ht="14.65" customHeight="1">
@@ -7036,7 +7013,7 @@
         <v>43577</v>
       </c>
       <c r="D13" t="s" s="144">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="145">
         <v>50</v>
@@ -7049,7 +7026,7 @@
         <v>7500</v>
       </c>
       <c r="H13" t="s" s="148">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
@@ -7059,7 +7036,7 @@
         <v>43577</v>
       </c>
       <c r="D14" t="s" s="150">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7072,7 +7049,7 @@
         <v>3120</v>
       </c>
       <c r="H14" t="s" s="148">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
@@ -7082,7 +7059,7 @@
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="98">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="99">
         <f>E13*2+E14</f>
@@ -7096,7 +7073,7 @@
         <v>150.04</v>
       </c>
       <c r="H15" t="s" s="148">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -7106,7 +7083,7 @@
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="107">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7118,7 +7095,7 @@
         <v>228</v>
       </c>
       <c r="H16" t="s" s="148">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
@@ -7128,7 +7105,7 @@
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="109">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="120">
         <v>1</v>
@@ -7140,7 +7117,7 @@
         <v>345</v>
       </c>
       <c r="H17" t="s" s="148">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
@@ -7150,7 +7127,7 @@
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="107">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7162,7 +7139,7 @@
         <v>60</v>
       </c>
       <c r="H18" t="s" s="148">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
@@ -7172,7 +7149,7 @@
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="109">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="120">
         <v>34</v>
@@ -7184,7 +7161,7 @@
         <v>1564</v>
       </c>
       <c r="H19" t="s" s="148">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
@@ -7194,7 +7171,7 @@
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="107">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7207,7 +7184,7 @@
         <v>2356</v>
       </c>
       <c r="H20" t="s" s="148">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
@@ -7217,7 +7194,7 @@
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="109">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="120">
         <v>102</v>
@@ -7229,7 +7206,7 @@
         <v>357</v>
       </c>
       <c r="H21" t="s" s="148">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -7239,7 +7216,7 @@
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="107">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7251,7 +7228,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s" s="148">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -7261,7 +7238,7 @@
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="109">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="120">
         <v>1</v>
@@ -7273,7 +7250,7 @@
         <v>228</v>
       </c>
       <c r="H23" t="s" s="148">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
@@ -7283,7 +7260,7 @@
         <v>43579</v>
       </c>
       <c r="D24" t="s" s="103">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="104">
         <v>40</v>
@@ -7295,7 +7272,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s" s="148">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
@@ -7303,7 +7280,7 @@
       <c r="B25" s="139"/>
       <c r="C25" s="156"/>
       <c r="D25" t="s" s="157">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="158"/>
       <c r="F25" s="158"/>
@@ -7311,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -7339,7 +7316,7 @@
       <c r="B28" s="72"/>
       <c r="C28" s="139"/>
       <c r="D28" t="s" s="162">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7351,7 +7328,7 @@
       <c r="B29" s="72"/>
       <c r="C29" s="139"/>
       <c r="D29" t="s" s="163">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7363,7 +7340,7 @@
       <c r="B30" s="72"/>
       <c r="C30" s="139"/>
       <c r="D30" t="s" s="164">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7375,7 +7352,7 @@
       <c r="B31" s="72"/>
       <c r="C31" s="139"/>
       <c r="D31" t="s" s="164">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7387,7 +7364,7 @@
       <c r="B32" s="72"/>
       <c r="C32" s="139"/>
       <c r="D32" t="s" s="165">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7448,7 +7425,7 @@
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" t="s" s="132">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="133"/>
       <c r="E38" s="133"/>
@@ -7460,7 +7437,7 @@
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" t="s" s="132">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="133"/>
       <c r="E39" s="133"/>
@@ -7472,7 +7449,7 @@
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
       <c r="C40" t="s" s="132">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="133"/>
       <c r="E40" s="133"/>
@@ -7540,13 +7517,13 @@
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" t="s" s="168">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s" s="168">
         <v>94</v>
       </c>
-      <c r="C4" t="s" s="168">
+      <c r="D4" t="s" s="168">
         <v>95</v>
-      </c>
-      <c r="D4" t="s" s="168">
-        <v>96</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -7559,7 +7536,7 @@
         <v>3239.21</v>
       </c>
       <c r="D5" t="s" s="168">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -7572,7 +7549,7 @@
         <v>6478.42</v>
       </c>
       <c r="D6" t="s" s="168">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -7585,7 +7562,7 @@
         <v>6478.42</v>
       </c>
       <c r="D7" t="s" s="168">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="11"/>
     </row>
